--- a/temp.xlsx
+++ b/temp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowHeight="15720"/>
+    <workbookView windowHeight="15760"/>
   </bookViews>
   <sheets>
     <sheet name="院校学生信息录入" sheetId="1" r:id="rId1"/>
@@ -10522,7 +10522,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -10569,6 +10569,28 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -10694,7 +10716,7 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -10706,34 +10728,34 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -10820,7 +10842,7 @@
     <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -10835,7 +10857,7 @@
     <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -10883,13 +10905,13 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -10910,10 +10932,10 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -10922,7 +10944,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -10943,14 +10965,14 @@
     <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="78" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -11005,7 +11027,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="93">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -11133,13 +11161,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>609600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1457325</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1914525</xdr:rowOff>
+      <xdr:rowOff>2362200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11156,7 +11184,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="142875" y="161925"/>
+          <a:off x="142875" y="609600"/>
           <a:ext cx="1314450" cy="1752600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11171,13 +11199,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>1457325</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>609600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2771775</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1914525</xdr:rowOff>
+      <xdr:rowOff>2362200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11194,7 +11222,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1457325" y="161925"/>
+          <a:off x="1457325" y="609600"/>
           <a:ext cx="1314450" cy="1752600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11207,15 +11235,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2152650</xdr:colOff>
+      <xdr:colOff>2457450</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>1971675</xdr:rowOff>
+      <xdr:rowOff>2828925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11232,8 +11260,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="762000" y="104775"/>
-          <a:ext cx="1390650" cy="1866900"/>
+          <a:off x="457200" y="152400"/>
+          <a:ext cx="2000250" cy="2676525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11503,36 +11531,50 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" customWidth="true" style="18" width="44.0535714285714"/>
     <col min="2" max="16384" style="18" width="9.14285714285714"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:6">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="164.0" customHeight="true">
-      <c r="A2" t="s" s="19">
+    <row r="2" ht="236.0" customHeight="true">
+      <c r="A2" t="s" s="25">
         <v>3295</v>
       </c>
-    </row>
-    <row r="3" ht="164.0" customHeight="true">
-      <c r="A3" t="s" s="19">
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+    </row>
+    <row r="3" ht="236.0" customHeight="true">
+      <c r="A3" t="s" s="25">
         <v>3295</v>
       </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>

--- a/temp.xlsx
+++ b/temp.xlsx
@@ -11159,15 +11159,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:colOff>200025</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>609600</xdr:rowOff>
+      <xdr:rowOff>304800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1457325</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>2362200</xdr:rowOff>
+      <xdr:rowOff>2676525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11184,8 +11184,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="142875" y="609600"/>
-          <a:ext cx="1314450" cy="1752600"/>
+          <a:off x="200025" y="304800"/>
+          <a:ext cx="1781175" cy="2371725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11196,16 +11196,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1457325</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>609600</xdr:rowOff>
+      <xdr:rowOff>304800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2771775</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>2362200</xdr:rowOff>
+      <xdr:rowOff>2676525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11222,8 +11222,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1457325" y="609600"/>
-          <a:ext cx="1314450" cy="1752600"/>
+          <a:off x="457200" y="304800"/>
+          <a:ext cx="1781175" cy="2371725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11234,14 +11234,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2457450</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>2828925</xdr:rowOff>
     </xdr:to>
@@ -11260,7 +11260,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="457200" y="152400"/>
+          <a:off x="66675" y="152400"/>
           <a:ext cx="2000250" cy="2676525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11541,7 +11541,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="18" width="44.0535714285714"/>
+    <col min="1" max="1" customWidth="true" style="18" width="13.8303571428571"/>
     <col min="2" max="16384" style="18" width="9.14285714285714"/>
   </cols>
   <sheetData>

--- a/temp.xlsx
+++ b/temp.xlsx
@@ -2511,28 +2511,28 @@
       </c>
       <c r="R3" s="49"/>
       <c r="S3" s="50" t="str">
-        <f>_xlfn.IFS(D3="小红书","10%",AND(D3="Bilibili",D3="个人认证"),"7%",AND(D3="Bilibili",D3="机构认证"),"5%",TRUE,"5%")</f>
+        <f>_xlfn.IFS(D3="小红书","10%",AND(D3="Bilibili",Q3="个人认证"),"7%",AND(D3="Bilibili",Q3="机构认证"),"5%",TRUE,"5%")</f>
         <v>5%</v>
       </c>
       <c r="T3" s="51" t="n">
-        <f>_xlfn.IFS(D3="抖音",IF(D3&gt;=500,0.88,0.82),D3="小红书",IF(D3&gt;=250,0.87,0.82),D3="公众号",0.9,D3="视频号",0.85,D3="快手",0.82,D3="Bilibili",0.87,TRUE,"")</f>
+        <f>_xlfn.IFS(D3="抖音",IF(J3&gt;=500,0.88,0.82),D3="小红书",IF(J3&gt;=250,0.87,0.82),D3="公众号",0.9,D3="视频号",0.85,D3="快手",0.82,D3="Bilibili",0.87,TRUE,"")</f>
         <v>0.88</v>
       </c>
       <c r="U3" s="50" t="n">
-        <f>_xlfn.IFS(D3="抖音",IF(D3&gt;=500,10000,"3%"),D3="小红书",IF(D3&gt;=250,6000,"3%"),TRUE,"3%")</f>
+        <f>_xlfn.IFS(D3="抖音",IF(J3&gt;=500,10000,"3%"),D3="小红书",IF(J3&gt;=250,6000,"3%"),TRUE,"3%")</f>
         <v>10000.0</v>
       </c>
-      <c r="V3" s="52" t="n">
-        <f>(R3*R3+R3*R3)/1.06</f>
-        <v>0.0</v>
+      <c r="V3" s="52" t="e">
+        <f>(R3*S3+R3*T3)/1.06</f>
+        <v>#VALUE!</v>
       </c>
       <c r="W3" s="50" t="n">
-        <f>_xlfn.IFS(D3="抖音",IF(D3&gt;=500,10000,3%*D3),D3="小红书",IF(D3&gt;=250,6000,3%*D3),TRUE,3%*D3)</f>
+        <f>_xlfn.IFS(D3="抖音",IF(J3&gt;=500,10000,3%*V3),D3="小红书",IF(J3&gt;=250,6000,3%*V3),TRUE,3%*V3)</f>
         <v>10000.0</v>
       </c>
-      <c r="X3" s="50" t="n">
-        <f>V3+V3</f>
-        <v>0.0</v>
+      <c r="X3" s="50" t="e">
+        <f>V3+W3</f>
+        <v>#VALUE!</v>
       </c>
       <c r="Y3" s="46"/>
       <c r="Z3" s="46"/>
